--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 09:38:46</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:04:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:04:53</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:46:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:46:53</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:58:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:58:05</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:18:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:18:57</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:30:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:30:09</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:39:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:39:22</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:48:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:48:28</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:57:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:57:19</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:19:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:19:39</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:35:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:35:13</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:43:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:43:50</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:52:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:52:59</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:07:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:07:22</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:23:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:23:58</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:33:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:33:23</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:42:06</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:51:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:51:15</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:59:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:59:50</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:26:54</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47410,7 +47410,7 @@
         <v>46</v>
       </c>
       <c r="Q592" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="R592" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:26:54</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:41:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:41:10</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:47:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:47:26</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:56:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:56:12</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:12:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:12:44</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:24:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:24:06</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:33:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:33:51</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:42:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:42:35</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:51:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:51:18</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:07:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:07:04</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:31:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:31:47</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:44:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:44:36</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:53:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:53:47</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:11:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:11:24</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:28:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:28:03</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:38:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:38:50</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:47:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:47:21</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:56:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:56:19</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:16:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:16:48</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:35:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:35:22</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:45:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:45:01</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:53:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:53:54</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:11:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:11:11</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:28:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:28:55</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:37:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:37:07</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:45:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:45:50</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:54:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:54:35</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 09:23:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 09:23:23</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 09:55:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 09:55:43</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 10:28:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 10:28:05</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 10:45:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 10:45:34</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 10:53:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 10:53:43</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 11:11:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 11:11:46</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 11:35:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 11:35:31</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 11:52:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 11:52:37</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:12:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:12:25</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 12:44:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 12:44:46</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:11:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:11:22</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 01:58:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 01:58:52</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:27:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:27:36</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:44:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:44:49</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 02:53:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 02:53:52</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:12:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233212.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:12:41</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:32:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233212.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:32:18</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:44:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:44:58</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 03:54:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 03:54:12</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:08:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232012.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:08:16</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:20:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232012.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:20:09</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:29:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:29:07</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:38:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:38:05</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:46:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:46:57</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 04:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 04:55:35</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:14:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:14:15</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:28:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233912.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:28:59</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:39:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233912.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:39:50</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:48:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:48:10</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 05:57:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 05:57:03</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:21:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:21:08</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:26:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:26:11</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:35:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:35:26</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:44:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:44:32</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 06:53:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230812.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 06:53:38</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:08:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230812.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232712.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:08:28</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:27:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232712.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:27:16</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:36:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:36:34</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:45:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:45:46</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 07:54:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235412.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 07:54:17</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:11:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231112.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:11:09</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:26:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233612.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
-  <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:26:37</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="4257">
+  <si>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:36:09</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12654,6 +12654,15 @@
   </si>
   <si>
     <t>494.416,00</t>
+  </si>
+  <si>
+    <t>VALE DO OURO</t>
+  </si>
+  <si>
+    <t>Rodrigo Moraes Fiacadori</t>
+  </si>
+  <si>
+    <t>00°00'00.000"</t>
   </si>
   <si>
     <t>VALE DOURADO</t>
@@ -12861,8 +12870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:S932">
-  <autoFilter ref="A5:S932"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:S933">
+  <autoFilter ref="A5:S933"/>
   <tableColumns count="19">
     <tableColumn id="1" name="ID Barragem"/>
     <tableColumn id="2" name="Nome da Barragem"/>
@@ -12890,7 +12899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S932"/>
+  <dimension ref="A1:S933"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -66881,43 +66890,40 @@
     </row>
     <row r="924">
       <c r="A924" s="0">
-        <v>8786</v>
+        <v>10054</v>
       </c>
       <c r="B924" s="0" t="s">
         <v>4214</v>
       </c>
       <c r="C924" s="0" t="s">
-        <v>3273</v>
+        <v>4215</v>
       </c>
       <c r="D924" s="0" t="s">
-        <v>3274</v>
+        <v>195</v>
       </c>
       <c r="E924" s="0" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="F924" s="0" t="s">
         <v>4216</v>
       </c>
       <c r="G924" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H924" s="0" t="s">
-        <v>987</v>
+        <v>1628</v>
       </c>
       <c r="I924" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J924" s="0" t="s">
-        <v>802</v>
-      </c>
       <c r="K924" s="0">
-        <v>9.28</v>
+        <v>0</v>
       </c>
       <c r="L924" s="0" t="s">
-        <v>3277</v>
+        <v>28</v>
       </c>
       <c r="M924" s="0" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="N924" s="0" t="s">
         <v>30</v>
@@ -66940,16 +66946,16 @@
     </row>
     <row r="925">
       <c r="A925" s="0">
-        <v>9100</v>
+        <v>8786</v>
       </c>
       <c r="B925" s="0" t="s">
         <v>4217</v>
       </c>
       <c r="C925" s="0" t="s">
-        <v>50</v>
+        <v>3273</v>
       </c>
       <c r="D925" s="0" t="s">
-        <v>51</v>
+        <v>3274</v>
       </c>
       <c r="E925" s="0" t="s">
         <v>4218</v>
@@ -66961,110 +66967,113 @@
         <v>25</v>
       </c>
       <c r="H925" s="0" t="s">
-        <v>143</v>
+        <v>987</v>
       </c>
       <c r="I925" s="0" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="J925" s="0" t="s">
-        <v>56</v>
+        <v>802</v>
       </c>
       <c r="K925" s="0">
-        <v>35</v>
+        <v>9.28</v>
       </c>
       <c r="L925" s="0" t="s">
-        <v>4220</v>
+        <v>3277</v>
       </c>
       <c r="M925" s="0" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="N925" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O925" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P925" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q925" s="0" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="R925" s="0" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="S925" s="0" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0">
-        <v>10041</v>
+        <v>9100</v>
       </c>
       <c r="B926" s="0" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C926" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D926" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E926" s="0" t="s">
         <v>4221</v>
       </c>
-      <c r="C926" s="0" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D926" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E926" s="0" t="s">
+      <c r="F926" s="0" t="s">
         <v>4222</v>
       </c>
-      <c r="F926" s="0" t="s">
+      <c r="G926" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H926" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I926" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J926" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K926" s="0">
+        <v>35</v>
+      </c>
+      <c r="L926" s="0" t="s">
         <v>4223</v>
       </c>
-      <c r="G926" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H926" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="I926" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K926" s="0">
-        <v>0</v>
-      </c>
-      <c r="L926" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="M926" s="0" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="N926" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O926" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P926" s="0" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q926" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="R926" s="0" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="S926" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0">
-        <v>8456</v>
+        <v>10041</v>
       </c>
       <c r="B927" s="0" t="s">
         <v>4224</v>
       </c>
       <c r="C927" s="0" t="s">
-        <v>50</v>
+        <v>1610</v>
       </c>
       <c r="D927" s="0" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E927" s="0" t="s">
         <v>4225</v>
@@ -67076,48 +67085,45 @@
         <v>25</v>
       </c>
       <c r="H927" s="0" t="s">
-        <v>1038</v>
+        <v>198</v>
       </c>
       <c r="I927" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J927" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="K927" s="0">
-        <v>45.15</v>
+        <v>0</v>
       </c>
       <c r="L927" s="0" t="s">
-        <v>4227</v>
+        <v>28</v>
       </c>
       <c r="M927" s="0" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N927" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="O927" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P927" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Q927" s="0" t="s">
         <v>32</v>
       </c>
       <c r="R927" s="0" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="S927" s="0" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0">
-        <v>8457</v>
+        <v>8456</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>50</v>
@@ -67126,10 +67132,10 @@
         <v>51</v>
       </c>
       <c r="E928" s="0" t="s">
+        <v>4228</v>
+      </c>
+      <c r="F928" s="0" t="s">
         <v>4229</v>
-      </c>
-      <c r="F928" s="0" t="s">
-        <v>4230</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>25</v>
@@ -67144,10 +67150,10 @@
         <v>56</v>
       </c>
       <c r="K928" s="0">
-        <v>22.5</v>
+        <v>45.15</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>43</v>
@@ -67156,7 +67162,7 @@
         <v>105</v>
       </c>
       <c r="O928" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P928" s="0" t="s">
         <v>46</v>
@@ -67168,45 +67174,45 @@
         <v>146</v>
       </c>
       <c r="S928" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0">
-        <v>8744</v>
+        <v>8457</v>
       </c>
       <c r="B929" s="0" t="s">
+        <v>4231</v>
+      </c>
+      <c r="C929" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D929" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E929" s="0" t="s">
         <v>4232</v>
       </c>
-      <c r="C929" s="0" t="s">
+      <c r="F929" s="0" t="s">
         <v>4233</v>
       </c>
-      <c r="D929" s="0" t="s">
-        <v>4234</v>
-      </c>
-      <c r="E929" s="0" t="s">
-        <v>4235</v>
-      </c>
-      <c r="F929" s="0" t="s">
-        <v>4236</v>
-      </c>
       <c r="G929" s="0" t="s">
-        <v>694</v>
+        <v>25</v>
       </c>
       <c r="H929" s="0" t="s">
-        <v>695</v>
+        <v>1038</v>
       </c>
       <c r="I929" s="0" t="s">
-        <v>696</v>
+        <v>118</v>
       </c>
       <c r="J929" s="0" t="s">
         <v>56</v>
       </c>
       <c r="K929" s="0">
-        <v>15.5</v>
+        <v>22.5</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4237</v>
+        <v>4234</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>43</v>
@@ -67215,7 +67221,7 @@
         <v>105</v>
       </c>
       <c r="O929" s="0" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="P929" s="0" t="s">
         <v>46</v>
@@ -67232,43 +67238,43 @@
     </row>
     <row r="930">
       <c r="A930" s="0">
-        <v>8857</v>
+        <v>8744</v>
       </c>
       <c r="B930" s="0" t="s">
+        <v>4235</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>4237</v>
+      </c>
+      <c r="E930" s="0" t="s">
         <v>4238</v>
       </c>
-      <c r="C930" s="0" t="s">
+      <c r="F930" s="0" t="s">
         <v>4239</v>
       </c>
-      <c r="D930" s="0" t="s">
+      <c r="G930" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="H930" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="I930" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="J930" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K930" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="L930" s="0" t="s">
         <v>4240</v>
       </c>
-      <c r="E930" s="0" t="s">
-        <v>4241</v>
-      </c>
-      <c r="F930" s="0" t="s">
-        <v>4242</v>
-      </c>
-      <c r="G930" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H930" s="0" t="s">
-        <v>4243</v>
-      </c>
-      <c r="I930" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="J930" s="0" t="s">
-        <v>4244</v>
-      </c>
-      <c r="K930" s="0">
-        <v>23</v>
-      </c>
-      <c r="L930" s="0" t="s">
-        <v>4245</v>
-      </c>
       <c r="M930" s="0" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N930" s="0" t="s">
         <v>105</v>
@@ -67286,54 +67292,54 @@
         <v>146</v>
       </c>
       <c r="S930" s="0" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0">
-        <v>9357</v>
+        <v>8857</v>
       </c>
       <c r="B931" s="0" t="s">
+        <v>4241</v>
+      </c>
+      <c r="C931" s="0" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D931" s="0" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>4244</v>
+      </c>
+      <c r="F931" s="0" t="s">
+        <v>4245</v>
+      </c>
+      <c r="G931" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H931" s="0" t="s">
         <v>4246</v>
-      </c>
-      <c r="C931" s="0" t="s">
-        <v>4239</v>
-      </c>
-      <c r="D931" s="0" t="s">
-        <v>4240</v>
-      </c>
-      <c r="E931" s="0" t="s">
-        <v>4247</v>
-      </c>
-      <c r="F931" s="0" t="s">
-        <v>4248</v>
-      </c>
-      <c r="G931" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H931" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="I931" s="0" t="s">
         <v>118</v>
       </c>
       <c r="J931" s="0" t="s">
-        <v>4244</v>
+        <v>4247</v>
       </c>
       <c r="K931" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L931" s="0" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="M931" s="0" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N931" s="0" t="s">
         <v>105</v>
       </c>
       <c r="O931" s="0" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="P931" s="0" t="s">
         <v>46</v>
@@ -67350,60 +67356,119 @@
     </row>
     <row r="932">
       <c r="A932" s="0">
-        <v>9534</v>
+        <v>9357</v>
       </c>
       <c r="B932" s="0" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C932" s="0" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D932" s="0" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E932" s="0" t="s">
         <v>4250</v>
       </c>
-      <c r="C932" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D932" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E932" s="0" t="s">
+      <c r="F932" s="0" t="s">
         <v>4251</v>
       </c>
-      <c r="F932" s="0" t="s">
-        <v>4252</v>
-      </c>
       <c r="G932" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H932" s="0" t="s">
-        <v>1339</v>
+        <v>214</v>
       </c>
       <c r="I932" s="0" t="s">
         <v>118</v>
       </c>
       <c r="J932" s="0" t="s">
-        <v>56</v>
+        <v>4247</v>
       </c>
       <c r="K932" s="0">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L932" s="0" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="M932" s="0" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="N932" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="O932" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P932" s="0" t="s">
         <v>46</v>
       </c>
       <c r="Q932" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="R932" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S932" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="0">
+        <v>9534</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C933" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D933" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E933" s="0" t="s">
+        <v>4254</v>
+      </c>
+      <c r="F933" s="0" t="s">
+        <v>4255</v>
+      </c>
+      <c r="G933" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H933" s="0" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I933" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J933" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K933" s="0">
+        <v>70</v>
+      </c>
+      <c r="L933" s="0" t="s">
+        <v>4256</v>
+      </c>
+      <c r="M933" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="N933" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O933" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P933" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q933" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="R932" s="0" t="s">
+      <c r="R933" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="S932" s="0" t="s">
+      <c r="S933" s="0" t="s">
         <v>48</v>
       </c>
     </row>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233612.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="4257">
-  <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:36:09</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="4258">
+  <si>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:45:10</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12662,7 +12662,10 @@
     <t>Rodrigo Moraes Fiacadori</t>
   </si>
   <si>
-    <t>00°00'00.000"</t>
+    <t>-15°55'10.660"</t>
+  </si>
+  <si>
+    <t>-56°26'50.047"</t>
   </si>
   <si>
     <t>VALE DOURADO</t>
@@ -66905,10 +66908,10 @@
         <v>4216</v>
       </c>
       <c r="F924" s="0" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
       <c r="G924" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H924" s="0" t="s">
         <v>1628</v>
@@ -66949,7 +66952,7 @@
         <v>8786</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="C925" s="0" t="s">
         <v>3273</v>
@@ -66958,10 +66961,10 @@
         <v>3274</v>
       </c>
       <c r="E925" s="0" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="F925" s="0" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="G925" s="0" t="s">
         <v>25</v>
@@ -67008,7 +67011,7 @@
         <v>9100</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="C926" s="0" t="s">
         <v>50</v>
@@ -67017,10 +67020,10 @@
         <v>51</v>
       </c>
       <c r="E926" s="0" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="F926" s="0" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
       <c r="G926" s="0" t="s">
         <v>25</v>
@@ -67038,7 +67041,7 @@
         <v>35</v>
       </c>
       <c r="L926" s="0" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="M926" s="0" t="s">
         <v>145</v>
@@ -67067,7 +67070,7 @@
         <v>10041</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="C927" s="0" t="s">
         <v>1610</v>
@@ -67076,10 +67079,10 @@
         <v>195</v>
       </c>
       <c r="E927" s="0" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="F927" s="0" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="G927" s="0" t="s">
         <v>25</v>
@@ -67123,7 +67126,7 @@
         <v>8456</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="C928" s="0" t="s">
         <v>50</v>
@@ -67132,10 +67135,10 @@
         <v>51</v>
       </c>
       <c r="E928" s="0" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="F928" s="0" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="G928" s="0" t="s">
         <v>25</v>
@@ -67153,7 +67156,7 @@
         <v>45.15</v>
       </c>
       <c r="L928" s="0" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="M928" s="0" t="s">
         <v>43</v>
@@ -67182,7 +67185,7 @@
         <v>8457</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="C929" s="0" t="s">
         <v>50</v>
@@ -67191,10 +67194,10 @@
         <v>51</v>
       </c>
       <c r="E929" s="0" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
       <c r="F929" s="0" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="G929" s="0" t="s">
         <v>25</v>
@@ -67212,7 +67215,7 @@
         <v>22.5</v>
       </c>
       <c r="L929" s="0" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="M929" s="0" t="s">
         <v>43</v>
@@ -67241,19 +67244,19 @@
         <v>8744</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="D930" s="0" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="E930" s="0" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="F930" s="0" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="G930" s="0" t="s">
         <v>694</v>
@@ -67271,7 +67274,7 @@
         <v>15.5</v>
       </c>
       <c r="L930" s="0" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="M930" s="0" t="s">
         <v>43</v>
@@ -67300,37 +67303,37 @@
         <v>8857</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="C931" s="0" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="D931" s="0" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E931" s="0" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="F931" s="0" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="G931" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H931" s="0" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="I931" s="0" t="s">
         <v>118</v>
       </c>
       <c r="J931" s="0" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="K931" s="0">
         <v>23</v>
       </c>
       <c r="L931" s="0" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="M931" s="0" t="s">
         <v>145</v>
@@ -67359,19 +67362,19 @@
         <v>9357</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="D932" s="0" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="E932" s="0" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="F932" s="0" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="G932" s="0" t="s">
         <v>25</v>
@@ -67383,13 +67386,13 @@
         <v>118</v>
       </c>
       <c r="J932" s="0" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="K932" s="0">
         <v>19</v>
       </c>
       <c r="L932" s="0" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="M932" s="0" t="s">
         <v>43</v>
@@ -67418,7 +67421,7 @@
         <v>9534</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="C933" s="0" t="s">
         <v>50</v>
@@ -67427,10 +67430,10 @@
         <v>51</v>
       </c>
       <c r="E933" s="0" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="F933" s="0" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="G933" s="0" t="s">
         <v>25</v>
@@ -67448,7 +67451,7 @@
         <v>70</v>
       </c>
       <c r="L933" s="0" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="M933" s="0" t="s">
         <v>145</v>

--- a/sigbm_download_2023-01-12.xlsx
+++ b/sigbm_download_2023-01-12.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234512.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235312.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="4258">
   <si>
-    <t>Informação extraída do SIGBM: 12/01/2023 - 08:45:10</t>
+    <t>Informação extraída do SIGBM: 12/01/2023 - 08:53:56</t>
   </si>
   <si>
     <t>ID Barragem</t>
